--- a/biology/Histoire de la zoologie et de la botanique/Wilhelm_Hofmeister/Wilhelm_Hofmeister.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Wilhelm_Hofmeister/Wilhelm_Hofmeister.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wilhelm Friedrich Benedikt Hofmeister est un botaniste saxon, né le 18 mai 1824 à Leipzig et mort le 12 janvier 1877 à Lindenau, dans cette même ville[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wilhelm Friedrich Benedikt Hofmeister est un botaniste saxon, né le 18 mai 1824 à Leipzig et mort le 12 janvier 1877 à Lindenau, dans cette même ville.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hofmeister est le fils d’un commerçant et éditeur de livres de musiques. Il quitte l’école à 15 ans pour devenir apprenti dans une librairie de Hambourg. Il consacre son temps libre (souvent le matin, de quatre à six heures, avant d’aller travailler) à la botanique. En 1851, il fait paraître à 27 ans une monographie sur l’alternance des générations chez les végétaux, montrant l'existence de deux périodes, l'une sexuée (gamétophyte) et l'autre asexuée (sporophyte), au cours du cycle de développement[2]. Ce n’est qu’en 1863, sans avoir gravi les échelons académiques traditionnels, qu’il obtient une chaire à l’université de Heidelberg. En 1872, il part à Tüngen où il remplace Hugo von Mohl.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hofmeister est le fils d’un commerçant et éditeur de livres de musiques. Il quitte l’école à 15 ans pour devenir apprenti dans une librairie de Hambourg. Il consacre son temps libre (souvent le matin, de quatre à six heures, avant d’aller travailler) à la botanique. En 1851, il fait paraître à 27 ans une monographie sur l’alternance des générations chez les végétaux, montrant l'existence de deux périodes, l'une sexuée (gamétophyte) et l'autre asexuée (sporophyte), au cours du cycle de développement. Ce n’est qu’en 1863, sans avoir gravi les échelons académiques traditionnels, qu’il obtient une chaire à l’université de Heidelberg. En 1872, il part à Tüngen où il remplace Hugo von Mohl.
 Il travaille d’abord sur la distribution des conifères dans l’Himalaya mais il s’intéresse bientôt à la reproduction des végétaux et l’embryogenèse des phanérogames. Il réfute la théorie de Matthias Jakob Schleiden selon laquelle l’embryon se développait dans le tube pollinique. Hofmeister démontre que le tube pollinique ne produit pas lui-même l’embryon mais qu’il stimule l’ovule présent dans l’ovaire.
 Après ce travail, il s’intéresse à l’embryologie des bryophytes et de des ptéridophytes. Il examine la germination et la fécondation chez Pilularia, Salvinia et Selaginella.
 </t>
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Untersuchungen des Vorganges bei der Befruchtung der Oenothereen. Botanische Zeitung 5: 785-792. 1847.
 Die Entstehung des Embryos der Phanerogamen. Eine Reihe mikroskopischer Untersuchungen. Verlag F. Hofmeister, Leipzig 1849.
